--- a/Rotations.xlsx
+++ b/Rotations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mblazek/tetris/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B82E2BB-5903-AE4C-818E-052301AB3059}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF4E3C7-12A8-D943-BEDD-F295726A9BA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{618FDAA7-21D3-E443-824D-A0D899B80A54}"/>
   </bookViews>
@@ -99,9 +99,6 @@
     <t>x-1, y-2</t>
   </si>
   <si>
-    <t>x-1, +1</t>
-  </si>
-  <si>
     <t>x-1, y+2</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>BLUE, direction == 0</t>
+  </si>
+  <si>
+    <t>x+1, +1</t>
   </si>
 </sst>
 </file>
@@ -286,34 +286,34 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13378562-CC39-E34F-B672-31A44F032BCB}">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="59" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -657,72 +657,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="G1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="L1" s="8" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="L1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="Q1" s="8" t="s">
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="Q1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
     </row>
     <row r="2" spans="1:20" s="7" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="G2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="G2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="L2" s="11" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="L2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="Q2" s="11" t="s">
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="Q2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
     </row>
     <row r="3" spans="1:20" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
+      <c r="I3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:20" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
@@ -737,25 +737,25 @@
       <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
+      <c r="I4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:20" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G5" s="12"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
+      <c r="I5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:20" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H6" s="6" t="s">
@@ -763,30 +763,30 @@
       </c>
     </row>
     <row r="7" spans="1:20" s="7" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="G7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="L7" s="9" t="s">
+      <c r="B7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="G7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="L7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="Q7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="Q7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
     </row>
     <row r="8" spans="1:20" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -833,10 +833,10 @@
     </row>
     <row r="10" spans="1:20" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>1</v>
@@ -844,33 +844,33 @@
     </row>
     <row r="12" spans="1:20" s="5" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="10" t="s">
+      <c r="Q12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
     </row>
     <row r="13" spans="1:20" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
@@ -919,14 +919,14 @@
       <c r="T17" s="14"/>
     </row>
     <row r="18" spans="1:20" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G18" s="12"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="12"/>
+        <v>6</v>
+      </c>
+      <c r="N18" s="8"/>
       <c r="R18" s="3" t="s">
         <v>6</v>
       </c>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>4</v>
@@ -964,7 +964,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="12"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="6" t="s">
         <v>1</v>
       </c>
@@ -974,33 +974,33 @@
       <c r="R20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S20" s="12"/>
+      <c r="S20" s="8"/>
     </row>
     <row r="22" spans="1:20" s="7" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="G22" s="15" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="G22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="L22" s="15" t="s">
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="L22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="Q22" s="15" t="s">
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="Q22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
     </row>
     <row r="23" spans="1:20" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
@@ -1047,47 +1047,47 @@
     </row>
     <row r="25" spans="1:20" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q25" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="R25" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="7" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="G27" s="16" t="s">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="G27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="L27" s="16" t="s">
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="L27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="Q27" s="16" t="s">
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="Q27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
     </row>
     <row r="28" spans="1:20" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>14</v>
@@ -1109,34 +1109,34 @@
     </row>
     <row r="30" spans="1:20" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="7" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="G32" s="17" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="G32" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="L32" s="17" t="s">
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="L32" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="Q32" s="17" t="s">
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="Q32" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
     </row>
     <row r="33" spans="2:8" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
@@ -1154,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>15</v>
@@ -1165,24 +1165,16 @@
     </row>
     <row r="35" spans="2:8" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G35" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="2:8" s="7" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="Q1:T1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="L2:O2"/>
@@ -1199,10 +1191,18 @@
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="L7:O7"/>
     <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="Q32:T32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
